--- a/Form_Checklist.xlsx
+++ b/Form_Checklist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="172">
   <si>
     <t xml:space="preserve">Ubuntu 20.04.4 Focal, Google Chrome </t>
   </si>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Bug ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Поле Name</t>
+    <t xml:space="preserve">1. Поле Name</t>
   </si>
   <si>
     <t xml:space="preserve">Ввести 1 латинский символ</t>
@@ -424,6 +424,120 @@
   </si>
   <si>
     <t xml:space="preserve">ID_1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Поле Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести 11 латинских символa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhlamionok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127 symb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести Surname на кириллице</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ахламёнок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname в верхнем регистре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKHLAMIONOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname в нижнем регистре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akhlamionok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname с использованием разрешенных спецсимволов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-k_hla-mionok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname с использованием запрещенных спецсимволов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@khl@mionok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname латиницей с цифрами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhla123mionok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать  Surname кириллицей с цифрами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ахла123мёнок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать латинский Surname с цифрами в начале</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123Akhlamionok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать латинский Surname с цифрами в конце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhlamionok123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123Ахламёнок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ахламёнок123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname латиницей с разрешенными спецсимволами в начале</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Akhlamionok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname латиницей с разрешенными спецсимволами в конце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhlamionok_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Sruname латиницей с разрешенными спецсимволами подряд в начале</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname латиницей с разрешенными спецсимволами подряд в середине</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написать Surname латиницей с разрешенными спецсимволами подряд в конце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скопировать валидное значение Surname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести в поле только разрешенные спецсимволы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Surname”</t>
   </si>
 </sst>
 </file>
@@ -433,7 +547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -494,6 +608,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -557,7 +677,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,7 +687,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -614,12 +734,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -632,6 +752,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -711,20 +835,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="49.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="49.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="12.63"/>
   </cols>
   <sheetData>
@@ -840,7 +964,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
         <v>2</v>
       </c>
@@ -848,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -857,14 +981,14 @@
       <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
         <v>3</v>
       </c>
@@ -872,7 +996,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -881,14 +1005,14 @@
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
         <v>4</v>
       </c>
@@ -896,13 +1020,13 @@
         <v>24</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -910,7 +1034,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
         <v>5</v>
       </c>
@@ -918,13 +1042,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -932,7 +1056,7 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
         <v>6</v>
       </c>
@@ -940,21 +1064,21 @@
         <v>30</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="n">
         <v>7</v>
       </c>
@@ -962,21 +1086,21 @@
         <v>33</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="n">
         <v>8</v>
       </c>
@@ -984,13 +1108,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -1006,13 +1130,13 @@
         <v>37</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -1020,7 +1144,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="n">
         <v>10</v>
       </c>
@@ -1028,16 +1152,16 @@
         <v>39</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="11"/>
@@ -1050,13 +1174,13 @@
         <v>42</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -1072,13 +1196,13 @@
         <v>45</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -1125,7 +1249,7 @@
       <c r="F17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="16" t="s">
@@ -1140,7 +1264,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -1162,7 +1286,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -1171,7 +1295,7 @@
       <c r="F19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="16" t="s">
@@ -1230,7 +1354,7 @@
         <v>68</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -1239,7 +1363,7 @@
       <c r="F22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="16" t="s">
@@ -1254,7 +1378,7 @@
         <v>72</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>73</v>
       </c>
       <c r="E23" s="12" t="s">
@@ -1263,7 +1387,7 @@
       <c r="F23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="16" t="s">
@@ -1287,7 +1411,7 @@
       <c r="F24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="16" t="s">
@@ -1311,7 +1435,7 @@
       <c r="F25" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -1335,7 +1459,7 @@
       <c r="F26" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="16" t="s">
@@ -1359,7 +1483,7 @@
       <c r="F27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="16" t="s">
@@ -1383,7 +1507,7 @@
       <c r="F28" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -1398,13 +1522,13 @@
         <v>96</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>97</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="13" t="s">
@@ -1420,7 +1544,7 @@
         <v>98</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="12" t="s">
         <v>99</v>
       </c>
@@ -1438,7 +1562,7 @@
         <v>100</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="12" t="s">
         <v>101</v>
       </c>
@@ -1456,7 +1580,7 @@
         <v>102</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="12" t="s">
         <v>103</v>
       </c>
@@ -1474,7 +1598,7 @@
         <v>104</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="12" t="s">
         <v>105</v>
       </c>
@@ -1492,7 +1616,7 @@
         <v>106</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="12" t="s">
         <v>107</v>
       </c>
@@ -1510,14 +1634,14 @@
         <v>108</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="12" t="s">
         <v>109</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="16" t="s">
@@ -1532,14 +1656,14 @@
         <v>112</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="12" t="s">
         <v>113</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="16" t="s">
@@ -1554,13 +1678,13 @@
         <v>115</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="14" t="n">
+      <c r="D37" s="11" t="n">
         <v>123456789</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="15" t="s">
         <v>117</v>
       </c>
       <c r="G37" s="13" t="s">
@@ -1585,7 +1709,7 @@
       <c r="F38" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="16" t="s">
@@ -1600,7 +1724,7 @@
         <v>122</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -1609,7 +1733,7 @@
       <c r="F39" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="16" t="s">
@@ -1624,7 +1748,7 @@
         <v>126</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="11" t="s">
         <v>127</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -1633,7 +1757,7 @@
       <c r="F40" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="16" t="s">
@@ -1648,14 +1772,14 @@
         <v>130</v>
       </c>
       <c r="C41" s="18"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="12" t="s">
         <v>131</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="16" t="s">
@@ -1668,7 +1792,7 @@
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="14"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="12"/>
       <c r="F42" s="17"/>
       <c r="G42" s="16"/>
@@ -1680,16 +1804,688 @@
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="12"/>
       <c r="F43" s="17"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
+    <row r="44" customFormat="false" ht="42.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="17"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="17"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+    </row>
+    <row r="60" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+    </row>
+    <row r="61" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="17"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="17"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+    </row>
+    <row r="65" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="17"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="17"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="17"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="11" t="n">
+        <v>33</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79" customFormat="false" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="11" t="n">
+        <v>37</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C4:C40"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="C45:C82"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1712,7 +2508,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1735,7 +2531,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Form_Checklist.xlsx
+++ b/Form_Checklist.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="177">
   <si>
     <t xml:space="preserve">Ubuntu 20.04.4 Focal, Google Chrome </t>
   </si>
@@ -525,16 +525,31 @@
     <t xml:space="preserve">Написать Sruname латиницей с разрешенными спецсимволами подряд в начале</t>
   </si>
   <si>
+    <t xml:space="preserve">-_-Akhlamionok</t>
+  </si>
+  <si>
     <t xml:space="preserve">Написать Surname латиницей с разрешенными спецсимволами подряд в середине</t>
   </si>
   <si>
+    <t xml:space="preserve">Akhla-_-mionok</t>
+  </si>
+  <si>
     <t xml:space="preserve">Написать Surname латиницей с разрешенными спецсимволами подряд в конце</t>
   </si>
   <si>
+    <t xml:space="preserve">Akhlamionok-_-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Скопировать валидное значение Surname</t>
   </si>
   <si>
     <t xml:space="preserve">Ввести в поле только разрешенные спецсимволы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жопа</t>
   </si>
   <si>
     <t xml:space="preserve">“Surname”</t>
@@ -754,7 +769,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,16 +852,16 @@
   </sheetPr>
   <dimension ref="A1:AA82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="49.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="4" width="12.63"/>
@@ -2124,7 +2139,7 @@
         <v>156</v>
       </c>
       <c r="C61" s="6"/>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="11" t="s">
         <v>157</v>
       </c>
       <c r="E61" s="12" t="s">
@@ -2142,7 +2157,7 @@
         <v>158</v>
       </c>
       <c r="C62" s="6"/>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="11" t="s">
         <v>159</v>
       </c>
       <c r="E62" s="12" t="s">
@@ -2232,7 +2247,9 @@
         <v>166</v>
       </c>
       <c r="C67" s="6"/>
-      <c r="D67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="E67" s="12" t="s">
         <v>13</v>
       </c>
@@ -2245,10 +2262,12 @@
         <v>24</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="11"/>
+      <c r="D68" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="E68" s="12" t="s">
         <v>13</v>
       </c>
@@ -2261,10 +2280,12 @@
         <v>25</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="E69" s="12" t="s">
         <v>13</v>
       </c>
@@ -2277,10 +2298,12 @@
         <v>26</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C70" s="6"/>
-      <c r="D70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="E70" s="12" t="s">
         <v>18</v>
       </c>
@@ -2408,7 +2431,9 @@
         <v>115</v>
       </c>
       <c r="C78" s="6"/>
-      <c r="D78" s="11"/>
+      <c r="D78" s="11" t="n">
+        <v>123456789</v>
+      </c>
       <c r="E78" s="12" t="s">
         <v>116</v>
       </c>
@@ -2421,7 +2446,7 @@
         <v>35</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="11"/>
@@ -2440,7 +2465,9 @@
         <v>122</v>
       </c>
       <c r="C80" s="6"/>
-      <c r="D80" s="11"/>
+      <c r="D80" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="E80" s="12" t="s">
         <v>13</v>
       </c>
@@ -2456,7 +2483,9 @@
         <v>126</v>
       </c>
       <c r="C81" s="6"/>
-      <c r="D81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="E81" s="12" t="s">
         <v>13</v>
       </c>
@@ -2474,7 +2503,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="11"/>
       <c r="E82" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="16"/>
@@ -2508,7 +2537,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2531,7 +2560,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Form_Checklist.xlsx
+++ b/Form_Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA_learning\homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\form_testing_check-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="369">
   <si>
     <t xml:space="preserve">Ubuntu 20.04.4 Focal, Google Chrome </t>
   </si>
@@ -842,13 +842,304 @@
   </si>
   <si>
     <t>Ввести 16 кириллических символа после "."</t>
+  </si>
+  <si>
+    <t>Письмо не приходит</t>
+  </si>
+  <si>
+    <t>4. Поле password</t>
+  </si>
+  <si>
+    <t>Ввести пароль, соответствующий требованиям</t>
+  </si>
+  <si>
+    <t>1350@Miyuki</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ввести пароль из 1 символа (цифры)</t>
+  </si>
+  <si>
+    <t>123!M</t>
+  </si>
+  <si>
+    <t>1350@Mi</t>
+  </si>
+  <si>
+    <t>1350@Miy</t>
+  </si>
+  <si>
+    <t>1350@Miyuki1994</t>
+  </si>
+  <si>
+    <t>1350@Miyuki1994q</t>
+  </si>
+  <si>
+    <t>1350@Miyuki1994qw</t>
+  </si>
+  <si>
+    <t>Ввести пароль только из цифр</t>
+  </si>
+  <si>
+    <t>Ввести пароль только из разрешенных символов</t>
+  </si>
+  <si>
+    <t>Ввести пароль из 1 символа (разрешенный спецсимвол)</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>Вставить в поле скопированный валидный пароль</t>
+  </si>
+  <si>
+    <t>___Akhlamionok</t>
+  </si>
+  <si>
+    <t>Akhl__amionok</t>
+  </si>
+  <si>
+    <t>Akhlamionok__</t>
+  </si>
+  <si>
+    <t>asshole</t>
+  </si>
+  <si>
+    <t>срака</t>
+  </si>
+  <si>
+    <t>Ввести пароль из 1 символа (латинской буквы)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 5 символов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 7 символов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 8 символов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 15 символов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 16 символов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 17 символов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль только из букв в верхнем и нижнем регистре (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль только из букв в верхнем регистре (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль только из букв в нижнем регистре (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с запрещенными символами в начале (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с запрещенными символами в середине (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с запрещенными символами в конце (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с одной цифры (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с двух цифр (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с одного разрешенного спецсимвола (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с двух идентичных разрешенных спецсимволов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с трёх идентичных разрешенных спецсимволов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с четырёх идентичных разрешенных спецсимволов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя разрешенными идентичными спецсимволами подряд в середине (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с тремя разрешенными идентичными спецсимволами подряд в середине (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с четырьмя разрешенными идентичными спецсимволами подряд в середине (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя разрешенными идентичными спецсимволами подряд в конце (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с тремя разрешенными идентичными спецсимволами подряд в конце (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с четырьмя разрешенными идентичными спецсимволами подряд в конце (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль без одной буквы в верхнем регистре (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль без букв в нижнем регистре (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль со всеми буквами в верхнем регистре (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с двух разных разрешенных спецсимволов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с трёх разных разрешенных спецсимволов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с четырёх разных разрешенных спецсимволов (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя разрешенными отличающимися спецсимволами подряд в середине (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с тремя разрешенными отличающимися спецсимволами подряд в середине (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с четырьмя разрешенными отличающимися спецсимволами подряд в середине (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя разрешенными отличающимися спецсимволами подряд в конце (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с тремя разрешенными отличающимися спецсимволами подряд в конце (на латинице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с четырьмя разрешенными отличающимися спецсимволами подряд в конце (на латинице)</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>Ввести пароль из 1 символа (кириллической прописной буквы)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 5 символов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 7 символов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 8 символов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 15 символов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 16 символов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль, содержащий 17 символов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль только из букв в верхнем и нижнем регистре (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль только из букв в верхнем регистре (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль только из букв в нижнем регистре (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с запрещенными символами в начале (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с запрещенными символами в середине (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с запрещенными символами в конце (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с одной цифры (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с двух цифр (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с одного разрешенного спецсимвола (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с двух идентичных разрешенных спецсимволов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с трёх идентичных разрешенных спецсимволов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с четырёх идентичных разрешенных спецсимволов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя разрешенными идентичными спецсимволами подряд в середине (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с тремя разрешенными идентичными спецсимволами подряд в середине (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с четырьмя разрешенными идентичными спецсимволами подряд в середине (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя разрешенными идентичными спецсимволами подряд в конце (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с тремя разрешенными идентичными спецсимволами подряд в конце (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с четырьмя разрешенными идентичными спецсимволами подряд в конце (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль без одной буквы в верхнем регистре (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль без букв в нижнем регистре (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль со всеми буквами в верхнем регистре (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с двух разных разрешенных спецсимволов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с трёх разных разрешенных спецсимволов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль, начинающийся с четырёх разных разрешенных спецсимволов (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя разрешенными отличающимися спецсимволами подряд в середине (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с тремя разрешенными отличающимися спецсимволами подряд в середине (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с четырьмя разрешенными отличающимися спецсимволами подряд в середине (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с двумя разрешенными отличающимися спецсимволами подряд в конце (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с тремя разрешенными отличающимися спецсимволами подряд в конце (на кириллице)</t>
+  </si>
+  <si>
+    <t>Ввести пароль с четырьмя разрешенными отличающимися спецсимволами подряд в конце (на кириллице)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -912,8 +1203,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -945,7 +1244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1005,15 +1304,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,16 +1355,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,9 +1377,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1083,8 +1408,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1095,8 +1426,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1443,3301 +1793,4602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA196"/>
+  <dimension ref="A1:AA264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="49.5546875" style="26" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="25"/>
-    <col min="9" max="16384" width="12.6640625" style="20"/>
+    <col min="1" max="1" width="8.21875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="49.5546875" style="22" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="21"/>
+    <col min="9" max="16384" width="12.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-    </row>
-    <row r="2" spans="1:27" s="22" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+    </row>
+    <row r="2" spans="1:27" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
     </row>
     <row r="3" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:27" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:27" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:27" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
+      <c r="C35" s="29"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6">
+      <c r="C37" s="29"/>
+      <c r="D37" s="4">
         <v>123456789</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>35</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>36</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="E40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>38</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>39</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>40</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="42.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>1</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="6"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>2</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="29"/>
+      <c r="D46" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>3</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>4</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>5</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>6</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>7</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>8</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="29"/>
+      <c r="D52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="E52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>9</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="E53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>10</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="E54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>11</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="6" t="s">
+      <c r="C55" s="29"/>
+      <c r="D55" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>12</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
-        <v>13</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="4">
+        <v>13</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>14</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="6" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="E58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>15</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>16</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="6" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>17</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="14" t="s">
+      <c r="C61" s="29"/>
+      <c r="D61" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>18</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="14" t="s">
+      <c r="C62" s="29"/>
+      <c r="D62" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="4">
         <v>19</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="6" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="E63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="4">
         <v>20</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="E64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="A65" s="4">
         <v>21</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="29"/>
+      <c r="D65" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="E65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <v>22</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="6" t="s">
+      <c r="C66" s="29"/>
+      <c r="D66" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
+      <c r="E66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="A67" s="4">
         <v>23</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="A68" s="4">
         <v>24</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="A69" s="4">
         <v>25</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70" s="4">
         <v>26</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="7" t="s">
+      <c r="C70" s="29"/>
+      <c r="D70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="A71" s="4">
         <v>27</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="7" t="s">
+      <c r="C71" s="29"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="4">
         <v>28</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="7" t="s">
+      <c r="C72" s="29"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="4">
         <v>29</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7" t="s">
+      <c r="C73" s="29"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="A74" s="4">
         <v>30</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="7" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="A75" s="4">
         <v>31</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="A76" s="4">
         <v>32</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7" t="s">
+      <c r="C76" s="29"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+      <c r="A77" s="4">
         <v>33</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="7" t="s">
+      <c r="C77" s="29"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="4">
         <v>34</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="7" t="s">
+      <c r="C78" s="29"/>
+      <c r="D78" s="4">
+        <v>1234567890</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="A79" s="4">
         <v>35</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+      <c r="A80" s="4">
         <v>36</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="A81" s="4">
         <v>37</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="A82" s="4">
         <v>38</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="7" t="s">
+      <c r="C82" s="29"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+      <c r="A84" s="12">
         <v>1</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="16">
+      <c r="A85" s="12">
         <v>2</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
+      <c r="A86" s="12">
         <v>3</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="16">
+      <c r="A87" s="12">
         <v>4</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
+      <c r="A88" s="12">
         <v>5</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="16">
+      <c r="A89" s="12">
         <v>6</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
+      <c r="A90" s="12">
         <v>7</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
+      <c r="A91" s="12">
         <v>8</v>
       </c>
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="7" t="s">
+      <c r="C91" s="27"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
     </row>
     <row r="92" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="16">
+      <c r="A92" s="12">
         <v>9</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C92" s="29"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="16">
+      <c r="A93" s="12">
         <v>10</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="7" t="s">
+      <c r="C93" s="27"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="16">
+      <c r="A94" s="12">
         <v>11</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="16">
+      <c r="A95" s="12">
         <v>12</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="7" t="s">
+      <c r="C95" s="27"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="16">
-        <v>13</v>
-      </c>
-      <c r="B96" s="17" t="s">
+      <c r="A96" s="12">
+        <v>13</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="16">
+      <c r="A97" s="12">
         <v>14</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="7" t="s">
+      <c r="C97" s="27"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
     </row>
     <row r="98" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="16">
+      <c r="A98" s="12">
         <v>15</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B98" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A99" s="16">
+      <c r="A99" s="12">
         <v>16</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C99" s="29"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="7" t="s">
+      <c r="C99" s="27"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="16">
+      <c r="A100" s="12">
         <v>17</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C100" s="29"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="16">
+      <c r="A101" s="12">
         <v>18</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C101" s="29"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="7" t="s">
+      <c r="C101" s="27"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F101" s="13"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A102" s="16">
+      <c r="A102" s="12">
         <v>19</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C102" s="29"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="7" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="16">
+      <c r="A103" s="12">
         <v>20</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="7" t="s">
+      <c r="C103" s="27"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="16">
+      <c r="A104" s="12">
         <v>21</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C104" s="29"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="7" t="s">
+      <c r="C104" s="27"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A105" s="16">
+      <c r="A105" s="12">
         <v>22</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C105" s="29"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A106" s="16">
+      <c r="A106" s="12">
         <v>23</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
     </row>
     <row r="107" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A107" s="16">
+      <c r="A107" s="12">
         <v>24</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C107" s="29"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A108" s="16">
+      <c r="A108" s="12">
         <v>25</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C108" s="29"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A109" s="16">
+      <c r="A109" s="12">
         <v>26</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C109" s="29"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="13"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A110" s="16">
+      <c r="A110" s="12">
         <v>27</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C110" s="29"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A111" s="16">
+      <c r="A111" s="12">
         <v>28</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C111" s="29"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="13"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="16">
+      <c r="A112" s="12">
         <v>29</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C112" s="29"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="13"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="16">
+      <c r="A113" s="12">
         <v>30</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C113" s="29"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="13"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="16">
+      <c r="A114" s="12">
         <v>31</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C114" s="29"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="7" t="s">
+      <c r="C114" s="27"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="16">
+      <c r="A115" s="12">
         <v>32</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="29"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="7" t="s">
+      <c r="C115" s="27"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F115" s="13"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="16">
+      <c r="A116" s="12">
         <v>33</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="7" t="s">
+      <c r="C116" s="27"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="16">
+      <c r="A117" s="12">
         <v>34</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="7" t="s">
+      <c r="C117" s="27"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F117" s="13"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="16">
+      <c r="A118" s="12">
         <v>35</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="13"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="16">
+      <c r="A119" s="12">
         <v>36</v>
       </c>
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C119" s="29"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="13"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="16">
+      <c r="A120" s="12">
         <v>37</v>
       </c>
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C120" s="29"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="16">
+      <c r="A121" s="12">
         <v>38</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="13"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="16">
+      <c r="A122" s="12">
         <v>39</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C122" s="29"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="16">
+      <c r="A123" s="12">
         <v>40</v>
       </c>
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C123" s="29"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" s="13"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="16">
+      <c r="A124" s="12">
         <v>41</v>
       </c>
-      <c r="B124" s="17" t="s">
+      <c r="B124" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C124" s="29"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" s="13"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="16">
+      <c r="A125" s="12">
         <v>42</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C125" s="29"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="13"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="16">
+      <c r="A126" s="12">
         <v>43</v>
       </c>
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="29"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="13"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="16">
+      <c r="A127" s="12">
         <v>44</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C127" s="29"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="7" t="s">
+      <c r="C127" s="27"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F127" s="13"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="16">
+      <c r="A128" s="12">
         <v>45</v>
       </c>
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="29"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="7" t="s">
+      <c r="C128" s="27"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F128" s="13"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="16">
+      <c r="A129" s="12">
         <v>46</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="29"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="7" t="s">
+      <c r="C129" s="27"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F129" s="13"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="16">
+      <c r="A130" s="12">
         <v>47</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C130" s="29"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="7" t="s">
+      <c r="C130" s="27"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F130" s="13"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="16">
+      <c r="A131" s="12">
         <v>48</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C131" s="29"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="16">
+      <c r="A132" s="12">
         <v>49</v>
       </c>
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="29"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="13"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="16">
+      <c r="A133" s="12">
         <v>50</v>
       </c>
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C133" s="29"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F133" s="13"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="16">
+      <c r="A134" s="12">
         <v>51</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C134" s="29"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F134" s="13"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A135" s="16">
+      <c r="A135" s="12">
         <v>52</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C135" s="29"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" s="13"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A136" s="16">
+      <c r="A136" s="12">
         <v>53</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C136" s="29"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" s="13"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="16">
+      <c r="A137" s="12">
         <v>54</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C137" s="29"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="13"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="16">
+      <c r="A138" s="12">
         <v>55</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C138" s="29"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="16">
+      <c r="A139" s="12">
         <v>56</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C139" s="29"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="7" t="s">
+      <c r="C139" s="27"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="16">
+      <c r="A140" s="12">
         <v>57</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C140" s="29"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="7" t="s">
+      <c r="C140" s="27"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="16">
+      <c r="A141" s="12">
         <v>58</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C141" s="29"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="7" t="s">
+      <c r="C141" s="27"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F141" s="13"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="16">
+      <c r="A142" s="12">
         <v>59</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="C142" s="29"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" s="13"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A143" s="16">
+      <c r="A143" s="12">
         <v>60</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C143" s="29"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="13"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
     </row>
     <row r="144" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A144" s="16">
+      <c r="A144" s="12">
         <v>61</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C144" s="29"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="13"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
     </row>
     <row r="145" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A145" s="16">
+      <c r="A145" s="12">
         <v>62</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="C145" s="29"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="13"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
     </row>
     <row r="146" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A146" s="16">
+      <c r="A146" s="12">
         <v>63</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C146" s="29"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="13"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="10"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A147" s="16">
+      <c r="A147" s="12">
         <v>64</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C147" s="29"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="13"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="10"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A148" s="16">
+      <c r="A148" s="12">
         <v>65</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C148" s="29"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="7" t="s">
+      <c r="C148" s="27"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F148" s="13"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
     </row>
     <row r="149" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A149" s="16">
+      <c r="A149" s="12">
         <v>66</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C149" s="29"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="7" t="s">
+      <c r="C149" s="27"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F149" s="13"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
     </row>
     <row r="150" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A150" s="16">
+      <c r="A150" s="12">
         <v>67</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C150" s="29"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="7" t="s">
+      <c r="C150" s="27"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F150" s="13"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A151" s="16">
+      <c r="A151" s="12">
         <v>68</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C151" s="29"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="7" t="s">
+      <c r="C151" s="27"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F151" s="13"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
     </row>
     <row r="152" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A152" s="16">
+      <c r="A152" s="12">
         <v>69</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C152" s="29"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="7" t="s">
+      <c r="C152" s="27"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F152" s="13"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
     </row>
     <row r="153" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A153" s="16">
+      <c r="A153" s="12">
         <v>70</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C153" s="29"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="13"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
     </row>
     <row r="154" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A154" s="16">
+      <c r="A154" s="12">
         <v>71</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C154" s="29"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="13"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="10"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
     </row>
     <row r="155" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A155" s="16">
+      <c r="A155" s="12">
         <v>72</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C155" s="29"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="13"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="10"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
     </row>
     <row r="156" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A156" s="16">
+      <c r="A156" s="12">
         <v>73</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C156" s="29"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="13"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
     </row>
     <row r="157" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A157" s="16">
+      <c r="A157" s="12">
         <v>74</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C157" s="29"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="7" t="s">
+      <c r="C157" s="27"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F157" s="13"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
     </row>
     <row r="158" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A158" s="16">
+      <c r="A158" s="12">
         <v>75</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C158" s="29"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="7" t="s">
+      <c r="C158" s="27"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F158" s="13"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
     </row>
     <row r="159" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A159" s="16">
+      <c r="A159" s="12">
         <v>76</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C159" s="29"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="7" t="s">
+      <c r="C159" s="27"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F159" s="13"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
     </row>
     <row r="160" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A160" s="16">
+      <c r="A160" s="12">
         <v>77</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="29"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="7" t="s">
+      <c r="C160" s="27"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F160" s="13"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
     </row>
     <row r="161" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A161" s="16">
+      <c r="A161" s="12">
         <v>78</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C161" s="29"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" s="13"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="10"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
     </row>
     <row r="162" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A162" s="16">
+      <c r="A162" s="12">
         <v>79</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C162" s="29"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="13"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="10"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
     </row>
     <row r="163" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A163" s="16">
+      <c r="A163" s="12">
         <v>80</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C163" s="29"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" s="13"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" s="10"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
     </row>
     <row r="164" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A164" s="16">
+      <c r="A164" s="12">
         <v>81</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C164" s="29"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="7" t="s">
+      <c r="C164" s="27"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F164" s="13"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
     </row>
     <row r="165" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A165" s="16">
+      <c r="A165" s="12">
         <v>82</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C165" s="29"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" s="13"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" s="10"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
     </row>
     <row r="166" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A166" s="16">
+      <c r="A166" s="12">
         <v>83</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C166" s="29"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="7" t="s">
+      <c r="C166" s="27"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F166" s="13"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
     </row>
     <row r="167" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A167" s="16">
+      <c r="A167" s="12">
         <v>84</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C167" s="29"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="7" t="s">
+      <c r="C167" s="27"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F167" s="13"/>
-      <c r="G167" s="12"/>
-      <c r="H167" s="12"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
     </row>
     <row r="168" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A168" s="16">
+      <c r="A168" s="12">
         <v>85</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C168" s="29"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="7" t="s">
+      <c r="C168" s="27"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F168" s="13"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
     </row>
     <row r="169" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A169" s="16">
+      <c r="A169" s="12">
         <v>86</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C169" s="29"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" s="13"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="12"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
     </row>
     <row r="170" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A170" s="16">
+      <c r="A170" s="12">
         <v>87</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="C170" s="29"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="7" t="s">
+      <c r="C170" s="27"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F170" s="13"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="12"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
     </row>
     <row r="171" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A171" s="16">
+      <c r="A171" s="12">
         <v>88</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C171" s="29"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" s="13"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
     </row>
     <row r="172" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A172" s="16">
+      <c r="A172" s="12">
         <v>89</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C172" s="29"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" s="13"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="10"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
     </row>
     <row r="173" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A173" s="16">
+      <c r="A173" s="12">
         <v>90</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C173" s="29"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" s="13"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="10"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
     </row>
     <row r="174" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A174" s="16">
+      <c r="A174" s="12">
         <v>91</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C174" s="29"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="13"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="10"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
     </row>
     <row r="175" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A175" s="16">
+      <c r="A175" s="12">
         <v>92</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C175" s="29"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" s="13"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" s="10"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
     </row>
     <row r="176" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A176" s="16">
+      <c r="A176" s="12">
         <v>93</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C176" s="29"/>
-      <c r="D176" s="6"/>
-      <c r="E176" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" s="13"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="10"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
     </row>
     <row r="177" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A177" s="16">
+      <c r="A177" s="12">
         <v>94</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C177" s="29"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" s="13"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="10"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="16">
+      <c r="A178" s="12">
         <v>95</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="C178" s="29"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" s="13"/>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" s="10"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="16">
+      <c r="A179" s="12">
         <v>96</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C179" s="29"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" s="13"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="10"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="16">
+      <c r="A180" s="12">
         <v>97</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C180" s="29"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" s="13"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" s="10"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="16">
+      <c r="A181" s="12">
         <v>98</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C181" s="29"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F181" s="10"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="16">
+      <c r="A182" s="12">
         <v>99</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C182" s="29"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F182" s="10"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="16">
+      <c r="A183" s="12">
         <v>100</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C183" s="30"/>
-      <c r="D183" s="6"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="12"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="10"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+    </row>
+    <row r="184" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="33"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="34"/>
+    </row>
+    <row r="185" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
+        <v>1</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C185" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F185" s="10"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+    </row>
+    <row r="186" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
+        <v>2</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C186" s="29"/>
+      <c r="D186" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F186" s="10"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+    </row>
+    <row r="187" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
+        <v>3</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C187" s="29"/>
+      <c r="D187" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" s="10"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+    </row>
+    <row r="188" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
+        <v>4</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C188" s="29"/>
+      <c r="D188" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" s="10"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+    </row>
+    <row r="189" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
+        <v>5</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C189" s="29"/>
+      <c r="D189" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" s="10"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+    </row>
+    <row r="190" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
+        <v>6</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C190" s="29"/>
+      <c r="D190" s="4">
+        <v>1</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="10"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+    </row>
+    <row r="191" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
+        <v>7</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C191" s="29"/>
+      <c r="D191" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="10"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+    </row>
+    <row r="192" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
+        <v>8</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C192" s="29"/>
+      <c r="D192" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="10"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+    </row>
+    <row r="193" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A193" s="12">
+        <v>9</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C193" s="29"/>
+      <c r="D193" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F193" s="10"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+    </row>
+    <row r="194" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
+        <v>10</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C194" s="29"/>
+      <c r="D194" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F194" s="10"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+    </row>
+    <row r="195" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
+        <v>11</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C195" s="29"/>
+      <c r="D195" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F195" s="10"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+    </row>
+    <row r="196" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <v>12</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C196" s="29"/>
+      <c r="D196" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" s="10"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="9"/>
+    </row>
+    <row r="197" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>13</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C197" s="29"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" s="10"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+    </row>
+    <row r="198" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="12">
+        <v>14</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C198" s="29"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="10"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+    </row>
+    <row r="199" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
+        <v>15</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C199" s="29"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="10"/>
+      <c r="G199" s="9"/>
+      <c r="H199" s="9"/>
+    </row>
+    <row r="200" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
+        <v>16</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C200" s="29"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="10"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+    </row>
+    <row r="201" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
+        <v>17</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C201" s="29"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" s="10"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
+    </row>
+    <row r="202" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
+        <v>18</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C202" s="29"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" s="10"/>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+    </row>
+    <row r="203" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
+        <v>19</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C203" s="29"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" s="10"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+    </row>
+    <row r="204" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
+        <v>20</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C204" s="29"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" s="10"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+    </row>
+    <row r="205" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
+        <v>21</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C205" s="29"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F205" s="10"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
+    </row>
+    <row r="206" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A206" s="12">
+        <v>22</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C206" s="29"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F206" s="10"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+    </row>
+    <row r="207" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A207" s="12">
+        <v>23</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C207" s="29"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F207" s="10"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+    </row>
+    <row r="208" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A208" s="12">
+        <v>24</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C208" s="29"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F208" s="10"/>
+      <c r="G208" s="9"/>
+      <c r="H208" s="9"/>
+    </row>
+    <row r="209" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A209" s="12">
+        <v>25</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C209" s="29"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F209" s="10"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+    </row>
+    <row r="210" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A210" s="12">
+        <v>26</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C210" s="29"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="10"/>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+    </row>
+    <row r="211" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A211" s="12">
+        <v>27</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C211" s="29"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F211" s="10"/>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+    </row>
+    <row r="212" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A212" s="12">
+        <v>28</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C212" s="29"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F212" s="10"/>
+      <c r="G212" s="9"/>
+      <c r="H212" s="9"/>
+    </row>
+    <row r="213" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A213" s="12">
+        <v>29</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C213" s="29"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="10"/>
+      <c r="G213" s="9"/>
+      <c r="H213" s="9"/>
+    </row>
+    <row r="214" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A214" s="12">
+        <v>30</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C214" s="29"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F214" s="10"/>
+      <c r="G214" s="9"/>
+      <c r="H214" s="9"/>
+    </row>
+    <row r="215" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A215" s="12">
+        <v>31</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C215" s="29"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F215" s="10"/>
+      <c r="G215" s="9"/>
+      <c r="H215" s="9"/>
+    </row>
+    <row r="216" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A216" s="12">
+        <v>32</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C216" s="29"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" s="10"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+    </row>
+    <row r="217" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A217" s="12">
+        <v>33</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C217" s="29"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F217" s="10"/>
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+    </row>
+    <row r="218" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A218" s="12">
+        <v>34</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C218" s="29"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" s="10"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+    </row>
+    <row r="219" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A219" s="12">
+        <v>35</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C219" s="29"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" s="10"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="9"/>
+    </row>
+    <row r="220" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
+        <v>36</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C220" s="29"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F220" s="10"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="9"/>
+    </row>
+    <row r="221" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A221" s="12">
+        <v>37</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C221" s="29"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F221" s="10"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+    </row>
+    <row r="222" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A222" s="12">
+        <v>38</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C222" s="29"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" s="10"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+    </row>
+    <row r="223" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A223" s="12">
+        <v>39</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C223" s="29"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F223" s="10"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
+    </row>
+    <row r="224" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A224" s="12">
+        <v>40</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C224" s="29"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F224" s="10"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+    </row>
+    <row r="225" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A225" s="12">
+        <v>41</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C225" s="29"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" s="10"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+    </row>
+    <row r="226" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A226" s="12">
+        <v>42</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C226" s="29"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F226" s="10"/>
+      <c r="G226" s="9"/>
+      <c r="H226" s="9"/>
+    </row>
+    <row r="227" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A227" s="12">
+        <v>43</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C227" s="29"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F227" s="10"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+    </row>
+    <row r="228" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A228" s="12">
+        <v>44</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C228" s="29"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" s="10"/>
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+    </row>
+    <row r="229" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A229" s="12">
+        <v>45</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C229" s="29"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" s="10"/>
+      <c r="G229" s="9"/>
+      <c r="H229" s="9"/>
+    </row>
+    <row r="230" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A230" s="12">
+        <v>46</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C230" s="29"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" s="10"/>
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+    </row>
+    <row r="231" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A231" s="12">
+        <v>47</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C231" s="29"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="10"/>
+      <c r="G231" s="9"/>
+      <c r="H231" s="9"/>
+    </row>
+    <row r="232" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A232" s="12">
+        <v>48</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C232" s="29"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" s="10"/>
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+    </row>
+    <row r="233" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A233" s="12">
+        <v>49</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C233" s="29"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" s="10"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+    </row>
+    <row r="234" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A234" s="12">
+        <v>50</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C234" s="29"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" s="10"/>
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+    </row>
+    <row r="235" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A235" s="12">
+        <v>51</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C235" s="29"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" s="10"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
+    </row>
+    <row r="236" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A236" s="12">
+        <v>52</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C236" s="29"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236" s="10"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+    </row>
+    <row r="237" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A237" s="12">
+        <v>53</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C237" s="29"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="10"/>
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+    </row>
+    <row r="238" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A238" s="12">
+        <v>54</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C238" s="29"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" s="10"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+    </row>
+    <row r="239" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A239" s="12">
+        <v>55</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C239" s="29"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" s="10"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+    </row>
+    <row r="240" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A240" s="12">
+        <v>56</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C240" s="29"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" s="10"/>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
+    </row>
+    <row r="241" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A241" s="12">
+        <v>57</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" s="29"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" s="10"/>
+      <c r="G241" s="9"/>
+      <c r="H241" s="9"/>
+    </row>
+    <row r="242" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A242" s="12">
+        <v>58</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C242" s="29"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" s="10"/>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
+    </row>
+    <row r="243" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A243" s="12">
+        <v>59</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C243" s="29"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" s="10"/>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
+    </row>
+    <row r="244" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A244" s="12">
+        <v>60</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C244" s="29"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" s="10"/>
+      <c r="G244" s="9"/>
+      <c r="H244" s="9"/>
+    </row>
+    <row r="245" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A245" s="12">
+        <v>61</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C245" s="29"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" s="10"/>
+      <c r="G245" s="9"/>
+      <c r="H245" s="9"/>
+    </row>
+    <row r="246" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A246" s="12">
+        <v>62</v>
+      </c>
+      <c r="B246" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C246" s="29"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F246" s="10"/>
+      <c r="G246" s="9"/>
+      <c r="H246" s="9"/>
+    </row>
+    <row r="247" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A247" s="12">
+        <v>63</v>
+      </c>
+      <c r="B247" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C247" s="29"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" s="10"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="9"/>
+    </row>
+    <row r="248" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A248" s="12">
+        <v>64</v>
+      </c>
+      <c r="B248" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C248" s="29"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" s="10"/>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
+    </row>
+    <row r="249" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A249" s="12">
+        <v>65</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C249" s="29"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" s="10"/>
+      <c r="G249" s="9"/>
+      <c r="H249" s="9"/>
+    </row>
+    <row r="250" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A250" s="12">
+        <v>66</v>
+      </c>
+      <c r="B250" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C250" s="29"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" s="10"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
+    </row>
+    <row r="251" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A251" s="12">
+        <v>67</v>
+      </c>
+      <c r="B251" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C251" s="29"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" s="10"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="9"/>
+    </row>
+    <row r="252" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A252" s="12">
+        <v>68</v>
+      </c>
+      <c r="B252" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C252" s="29"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" s="10"/>
+      <c r="G252" s="9"/>
+      <c r="H252" s="9"/>
+    </row>
+    <row r="253" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A253" s="12">
+        <v>69</v>
+      </c>
+      <c r="B253" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C253" s="29"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" s="10"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
+    </row>
+    <row r="254" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A254" s="12">
+        <v>70</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C254" s="29"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" s="10"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
+    </row>
+    <row r="255" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A255" s="12">
+        <v>71</v>
+      </c>
+      <c r="B255" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C255" s="29"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" s="10"/>
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
+    </row>
+    <row r="256" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A256" s="12">
+        <v>72</v>
+      </c>
+      <c r="B256" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C256" s="29"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" s="10"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
+    </row>
+    <row r="257" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A257" s="12">
+        <v>73</v>
+      </c>
+      <c r="B257" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C257" s="29"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" s="10"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="9"/>
+    </row>
+    <row r="258" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A258" s="12">
+        <v>74</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C258" s="29"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" s="10"/>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
+    </row>
+    <row r="259" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A259" s="12">
+        <v>75</v>
+      </c>
+      <c r="B259" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C259" s="29"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" s="10"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+    </row>
+    <row r="260" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A260" s="12">
+        <v>76</v>
+      </c>
+      <c r="B260" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="C260" s="29"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" s="10"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
+    </row>
+    <row r="261" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A261" s="12">
+        <v>77</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C261" s="29"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F261" s="10"/>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
+    </row>
+    <row r="262" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A262" s="12">
+        <v>78</v>
+      </c>
+      <c r="B262" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C262" s="29"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="10"/>
+      <c r="G262" s="9"/>
+      <c r="H262" s="9"/>
+    </row>
+    <row r="263" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A263" s="12">
+        <v>79</v>
+      </c>
+      <c r="B263" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C263" s="29"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F263" s="10"/>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9"/>
+    </row>
+    <row r="264" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A264" s="12">
+        <v>80</v>
+      </c>
+      <c r="B264" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C264" s="29"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F264" s="10"/>
+      <c r="G264" s="9"/>
+      <c r="H264" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A184:H184"/>
+    <mergeCell ref="C185:C264"/>
     <mergeCell ref="C84:C183"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C4:C40"/>
@@ -4745,8 +6396,17 @@
     <mergeCell ref="C45:C82"/>
     <mergeCell ref="A83:H83"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D185" r:id="rId1"/>
+    <hyperlink ref="D192" r:id="rId2"/>
+    <hyperlink ref="D193" r:id="rId3"/>
+    <hyperlink ref="D194" r:id="rId4"/>
+    <hyperlink ref="D195" r:id="rId5"/>
+    <hyperlink ref="D196" r:id="rId6"/>
+    <hyperlink ref="D186" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
 
